--- a/images/Pie Charts/pie Chart excel ALL.xlsx
+++ b/images/Pie Charts/pie Chart excel ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yardenzamir/Final-Project/images/Pie Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74EC29-2133-E64A-9018-1A944AA2EF12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE04BF4-C4C9-EF43-9A65-E900F012A9E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1000" windowWidth="25440" windowHeight="15000" xr2:uid="{A7156015-02C0-FE4E-B4F3-54A7E392D6DC}"/>
+    <workbookView xWindow="160" yWindow="1000" windowWidth="25440" windowHeight="15000" xr2:uid="{A7156015-02C0-FE4E-B4F3-54A7E392D6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>Partner</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5807,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC59BE4E-905B-694F-954B-07AAC796F953}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5818,7 +5821,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5890,12 +5893,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
